--- a/data/binomial_data_half/median_pop.xlsx
+++ b/data/binomial_data_half/median_pop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/AM_Workshop/snp_change/data/binomial_data_half/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E041E9-EFE9-8546-87B3-B02541226275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3D5294-7D61-7C42-BD82-993C6A63CA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="680" windowWidth="28040" windowHeight="17420" xr2:uid="{4B079B27-E5BB-924F-9F5D-7D2DAFE0581C}"/>
   </bookViews>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Site</t>
+    <t>Paper_ID</t>
   </si>
   <si>
-    <t>Median</t>
+    <t>Median Slope</t>
   </si>
 </sst>
 </file>
@@ -426,12 +426,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="3"/>
+    <col min="2" max="2" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
